--- a/그래프/정리엑셀.xlsx
+++ b/그래프/정리엑셀.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\그래프\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7C337E-2488-43D5-8166-423A653F8C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2CEECC-8492-4813-AC84-926E144CD177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D117" sqref="A117:D117"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3856,6 +3856,18 @@
       <c r="E118">
         <v>60</v>
       </c>
+      <c r="F118" s="1">
+        <v>0.76049999999999995</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0.47939999999999999</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0.45679999999999998</v>
+      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
@@ -3873,6 +3885,18 @@
       <c r="E119">
         <v>80</v>
       </c>
+      <c r="F119" s="1">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0.46389999999999998</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0.438</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
@@ -3890,6 +3914,18 @@
       <c r="E120">
         <v>100</v>
       </c>
+      <c r="F120" s="1">
+        <v>0.78210000000000002</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0.80789999999999995</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0.43680000000000002</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
@@ -3907,6 +3943,18 @@
       <c r="E121">
         <v>120</v>
       </c>
+      <c r="F121" s="1">
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0.45079999999999998</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0.8034</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0.4234</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
@@ -3924,6 +3972,18 @@
       <c r="E122">
         <v>20</v>
       </c>
+      <c r="F122" s="1">
+        <v>0.74739999999999995</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.50619999999999998</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0.48010000000000003</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
@@ -3941,6 +4001,18 @@
       <c r="E123">
         <v>40</v>
       </c>
+      <c r="F123" s="1">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0.49080000000000001</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0.77210000000000001</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0.46920000000000001</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
@@ -3958,6 +4030,18 @@
       <c r="E124">
         <v>60</v>
       </c>
+      <c r="F124" s="1">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0.46750000000000003</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
@@ -3975,6 +4059,18 @@
       <c r="E125">
         <v>80</v>
       </c>
+      <c r="F125" s="1">
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0.47770000000000001</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0.78959999999999997</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0.45350000000000001</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
@@ -3992,6 +4088,18 @@
       <c r="E126">
         <v>100</v>
       </c>
+      <c r="F126" s="1">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0.48060000000000003</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0.46510000000000001</v>
+      </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
@@ -4009,6 +4117,18 @@
       <c r="E127">
         <v>120</v>
       </c>
+      <c r="F127" s="1">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0.45069999999999999</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
@@ -4026,8 +4146,20 @@
       <c r="E128">
         <v>20</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="1">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0.47970000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4043,8 +4175,20 @@
       <c r="E129">
         <v>40</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" s="1">
+        <v>0.73519999999999996</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0.5212</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0.49270000000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4060,8 +4204,20 @@
       <c r="E130">
         <v>60</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="1">
+        <v>0.75160000000000005</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0.50270000000000004</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0.76380000000000003</v>
+      </c>
+      <c r="I130" s="1">
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4077,8 +4233,20 @@
       <c r="E131">
         <v>80</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" s="1">
+        <v>0.74919999999999998</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0.50229999999999997</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0.77580000000000005</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0.47510000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4094,8 +4262,20 @@
       <c r="E132">
         <v>100</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" s="1">
+        <v>0.74709999999999999</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="I132" s="1">
+        <v>0.48280000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4111,8 +4291,20 @@
       <c r="E133">
         <v>120</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" s="1">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="I133" s="1">
+        <v>0.4718</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4128,8 +4320,20 @@
       <c r="E134">
         <v>20</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" s="1">
+        <v>0.71870000000000001</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0.73809999999999998</v>
+      </c>
+      <c r="I134" s="1">
+        <v>0.4929</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4145,8 +4349,20 @@
       <c r="E135">
         <v>40</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" s="1">
+        <v>0.74019999999999997</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0.51770000000000005</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0.76070000000000004</v>
+      </c>
+      <c r="I135" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4162,8 +4378,20 @@
       <c r="E136">
         <v>60</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" s="1">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0.52070000000000005</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0.49490000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4179,8 +4407,20 @@
       <c r="E137">
         <v>80</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" s="1">
+        <v>0.73850000000000005</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0.52110000000000001</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0.76170000000000004</v>
+      </c>
+      <c r="I137" s="1">
+        <v>0.49109999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4196,8 +4436,20 @@
       <c r="E138">
         <v>100</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" s="1">
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0.7732</v>
+      </c>
+      <c r="I138" s="1">
+        <v>0.47220000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4213,8 +4465,20 @@
       <c r="E139">
         <v>120</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" s="1">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="I139" s="1">
+        <v>0.47570000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4230,8 +4494,20 @@
       <c r="E140">
         <v>20</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" s="1">
+        <v>0.71089999999999998</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0.72609999999999997</v>
+      </c>
+      <c r="I140" s="1">
+        <v>0.51170000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4247,8 +4523,20 @@
       <c r="E141">
         <v>40</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" s="1">
+        <v>0.71130000000000004</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0.73240000000000005</v>
+      </c>
+      <c r="I141" s="1">
+        <v>0.50270000000000004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4264,8 +4552,20 @@
       <c r="E142">
         <v>60</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" s="1">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="I142" s="1">
+        <v>0.49659999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4281,8 +4581,20 @@
       <c r="E143">
         <v>80</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0.53029999999999999</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="I143" s="1">
+        <v>0.49559999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4298,8 +4610,20 @@
       <c r="E144">
         <v>100</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" s="1">
+        <v>0.7349</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0.52390000000000003</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0.75570000000000004</v>
+      </c>
+      <c r="I144" s="1">
+        <v>0.50090000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4313,6 +4637,630 @@
         <v>0.5</v>
       </c>
       <c r="E145">
+        <v>120</v>
+      </c>
+      <c r="F145" s="1">
+        <v>0.7369</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0.52680000000000005</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0.76570000000000005</v>
+      </c>
+      <c r="I145" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>100</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>100</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>100</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>100</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>100</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>100</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>100</v>
+      </c>
+      <c r="D152">
+        <v>0.1</v>
+      </c>
+      <c r="E152">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>100</v>
+      </c>
+      <c r="D153">
+        <v>0.1</v>
+      </c>
+      <c r="E153">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>100</v>
+      </c>
+      <c r="D154">
+        <v>0.1</v>
+      </c>
+      <c r="E154">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>100</v>
+      </c>
+      <c r="D155">
+        <v>0.1</v>
+      </c>
+      <c r="E155">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>100</v>
+      </c>
+      <c r="D156">
+        <v>0.1</v>
+      </c>
+      <c r="E156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>100</v>
+      </c>
+      <c r="D157">
+        <v>0.1</v>
+      </c>
+      <c r="E157">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>100</v>
+      </c>
+      <c r="D158">
+        <v>0.2</v>
+      </c>
+      <c r="E158">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>100</v>
+      </c>
+      <c r="D159">
+        <v>0.2</v>
+      </c>
+      <c r="E159">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>100</v>
+      </c>
+      <c r="D160">
+        <v>0.2</v>
+      </c>
+      <c r="E160">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>100</v>
+      </c>
+      <c r="D161">
+        <v>0.2</v>
+      </c>
+      <c r="E161">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>100</v>
+      </c>
+      <c r="D162">
+        <v>0.2</v>
+      </c>
+      <c r="E162">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>100</v>
+      </c>
+      <c r="D163">
+        <v>0.2</v>
+      </c>
+      <c r="E163">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>100</v>
+      </c>
+      <c r="D164">
+        <v>0.3</v>
+      </c>
+      <c r="E164">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>100</v>
+      </c>
+      <c r="D165">
+        <v>0.3</v>
+      </c>
+      <c r="E165">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>100</v>
+      </c>
+      <c r="D166">
+        <v>0.3</v>
+      </c>
+      <c r="E166">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>100</v>
+      </c>
+      <c r="D167">
+        <v>0.3</v>
+      </c>
+      <c r="E167">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>100</v>
+      </c>
+      <c r="D168">
+        <v>0.3</v>
+      </c>
+      <c r="E168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>100</v>
+      </c>
+      <c r="D169">
+        <v>0.3</v>
+      </c>
+      <c r="E169">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>100</v>
+      </c>
+      <c r="D170">
+        <v>0.4</v>
+      </c>
+      <c r="E170">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>100</v>
+      </c>
+      <c r="D171">
+        <v>0.4</v>
+      </c>
+      <c r="E171">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>100</v>
+      </c>
+      <c r="D172">
+        <v>0.4</v>
+      </c>
+      <c r="E172">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>100</v>
+      </c>
+      <c r="D173">
+        <v>0.4</v>
+      </c>
+      <c r="E173">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>100</v>
+      </c>
+      <c r="D174">
+        <v>0.4</v>
+      </c>
+      <c r="E174">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>100</v>
+      </c>
+      <c r="D175">
+        <v>0.4</v>
+      </c>
+      <c r="E175">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>100</v>
+      </c>
+      <c r="D176">
+        <v>0.5</v>
+      </c>
+      <c r="E176">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>100</v>
+      </c>
+      <c r="D177">
+        <v>0.5</v>
+      </c>
+      <c r="E177">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>100</v>
+      </c>
+      <c r="D178">
+        <v>0.5</v>
+      </c>
+      <c r="E178">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>100</v>
+      </c>
+      <c r="D179">
+        <v>0.5</v>
+      </c>
+      <c r="E179">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>100</v>
+      </c>
+      <c r="D180">
+        <v>0.5</v>
+      </c>
+      <c r="E180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>100</v>
+      </c>
+      <c r="D181">
+        <v>0.5</v>
+      </c>
+      <c r="E181">
         <v>120</v>
       </c>
     </row>
